--- a/ExampleIG/output/ValueSet-hn-extended-servicerequest-status.xlsx
+++ b/ExampleIG/output/ValueSet-hn-extended-servicerequest-status.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:33:03+02:00</t>
+    <t>2025-05-29T20:44:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -103,7 +103,7 @@
     <t>http://hl7.org/fhir/request-status</t>
   </si>
   <si>
-    <t>http://helsenorge.no/fhir/CodeSystem/no-kodeverk-9148.codesystem</t>
+    <t>urn:oid:2.16.578.1.12.4.1.1.9148</t>
   </si>
 </sst>
 </file>
